--- a/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGETTI\ASST\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33328BDB-C144-450D-B1E0-01C493CDE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A118D-5577-43E0-A2B8-423358EC629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1881,24 +1881,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.bd2cab7df3aa67347f07a7e87e84441317ecfc63ca88d536790305ca8133ba37.fe16feee38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-20T13:47:42Z</t>
-  </si>
-  <si>
-    <t>9080b1ec6d9b09f229b41b8e62496e1a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.27be19d0e960e18c74ed55337f7800dd14193f89658a4a33a46da8540821dae4.1955e85e02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-20T13:51:25Z</t>
-  </si>
-  <si>
-    <t>8c6c6eb9f0876da2a466282135ee25ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.27be19d0e960e18c74ed55337f7800dd14193f89658a4a33a46da8540821dae4.35b229c7b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-05-06T10:34:34Z</t>
   </si>
   <si>
@@ -1927,6 +1909,24 @@
   </si>
   <si>
     <t>subject_application_version: 10.3</t>
+  </si>
+  <si>
+    <t>b96b9b82d98c6f388a59498d4fe2e7e2</t>
+  </si>
+  <si>
+    <t>2025-06-27T17:24:26Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.381938812c0c08c914ec2f1798f5620cec66553d786f54c9ea83067fdfa9716b.425a9608ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>43e9e5727e26f91d921fb62c51921db5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.381938812c0c08c914ec2f1798f5620cec66553d786f54c9ea83067fdfa9716b.52208e1b56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-27T17:28:04Z</t>
   </si>
 </sst>
 </file>
@@ -3994,10 +3994,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4123,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D5" s="49"/>
       <c r="F5" s="6"/>
@@ -4396,7 +4396,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P12" s="38" t="s">
         <v>64</v>
@@ -4408,7 +4408,7 @@
         <v>64</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
@@ -4531,7 +4531,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -4543,7 +4543,7 @@
         <v>64</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4740,7 +4740,7 @@
         <v>64</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P20" s="38" t="s">
         <v>64</v>
@@ -4752,7 +4752,7 @@
         <v>64</v>
       </c>
       <c r="S20" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
@@ -4875,7 +4875,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>64</v>
@@ -4887,7 +4887,7 @@
         <v>64</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -5078,7 +5078,7 @@
         <v>64</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>64</v>
@@ -5090,7 +5090,7 @@
         <v>64</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
@@ -5211,7 +5211,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -5223,7 +5223,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -5724,7 +5724,7 @@
         <v>64</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>64</v>
@@ -5736,7 +5736,7 @@
         <v>64</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
@@ -5785,7 +5785,7 @@
         <v>64</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P45" s="38" t="s">
         <v>64</v>
@@ -5797,7 +5797,7 @@
         <v>64</v>
       </c>
       <c r="S45" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T45" s="38"/>
       <c r="U45" s="39"/>
@@ -5846,7 +5846,7 @@
         <v>64</v>
       </c>
       <c r="O46" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P46" s="38" t="s">
         <v>64</v>
@@ -5858,7 +5858,7 @@
         <v>64</v>
       </c>
       <c r="S46" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T46" s="38"/>
       <c r="U46" s="39"/>
@@ -5907,7 +5907,7 @@
         <v>64</v>
       </c>
       <c r="O47" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P47" s="38" t="s">
         <v>64</v>
@@ -5919,7 +5919,7 @@
         <v>64</v>
       </c>
       <c r="S47" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T47" s="38"/>
       <c r="U47" s="39"/>
@@ -5968,7 +5968,7 @@
         <v>64</v>
       </c>
       <c r="O48" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P48" s="38" t="s">
         <v>64</v>
@@ -5980,7 +5980,7 @@
         <v>64</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
@@ -6029,7 +6029,7 @@
         <v>64</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>64</v>
@@ -6041,7 +6041,7 @@
         <v>64</v>
       </c>
       <c r="S49" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
@@ -8622,7 +8622,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -8634,7 +8634,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -8683,7 +8683,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -8695,7 +8695,7 @@
         <v>64</v>
       </c>
       <c r="S119" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
@@ -8744,7 +8744,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -8756,7 +8756,7 @@
         <v>64</v>
       </c>
       <c r="S120" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
@@ -8805,7 +8805,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -8817,7 +8817,7 @@
         <v>64</v>
       </c>
       <c r="S121" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -8948,7 +8948,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -8960,7 +8960,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
@@ -9009,7 +9009,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -9021,7 +9021,7 @@
         <v>64</v>
       </c>
       <c r="S125" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
@@ -9070,7 +9070,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -9082,7 +9082,7 @@
         <v>64</v>
       </c>
       <c r="S126" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
@@ -9131,7 +9131,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -9143,7 +9143,7 @@
         <v>64</v>
       </c>
       <c r="S127" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
@@ -9397,7 +9397,7 @@
         <v>64</v>
       </c>
       <c r="O133" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P133" s="38" t="s">
         <v>64</v>
@@ -9409,7 +9409,7 @@
         <v>64</v>
       </c>
       <c r="S133" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
@@ -10730,16 +10730,16 @@
         <v>395</v>
       </c>
       <c r="F169" s="37">
-        <v>45797</v>
+        <v>45835</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="J169" s="38" t="s">
         <v>64</v>
@@ -10818,16 +10818,16 @@
         <v>379</v>
       </c>
       <c r="F171" s="37">
-        <v>45797</v>
+        <v>45835</v>
       </c>
       <c r="G171" s="37" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H171" s="37" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="J171" s="38" t="s">
         <v>64</v>
@@ -11431,10 +11431,10 @@
         <v>45783</v>
       </c>
       <c r="G187" s="37" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H187" s="45" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I187" s="35" t="s">
         <v>441</v>
@@ -11451,7 +11451,7 @@
         <v>64</v>
       </c>
       <c r="O187" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P187" s="38" t="s">
         <v>64</v>
@@ -11463,7 +11463,7 @@
         <v>64</v>
       </c>
       <c r="S187" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T187" s="38"/>
       <c r="U187" s="35"/>
@@ -11492,13 +11492,13 @@
         <v>45783</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I188" s="35" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J188" s="38" t="s">
         <v>64</v>
@@ -11512,7 +11512,7 @@
         <v>64</v>
       </c>
       <c r="O188" s="38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P188" s="38" t="s">
         <v>64</v>
@@ -11524,7 +11524,7 @@
         <v>64</v>
       </c>
       <c r="S188" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T188" s="38"/>
       <c r="U188" s="35"/>
@@ -18049,12 +18049,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18316,21 +18319,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18355,18 +18364,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGETTI\ASST\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A118D-5577-43E0-A2B8-423358EC629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8262B3-E1DA-477D-8EB7-6F7BB759D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1911,22 +1911,22 @@
     <t>subject_application_version: 10.3</t>
   </si>
   <si>
-    <t>b96b9b82d98c6f388a59498d4fe2e7e2</t>
-  </si>
-  <si>
-    <t>2025-06-27T17:24:26Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.381938812c0c08c914ec2f1798f5620cec66553d786f54c9ea83067fdfa9716b.425a9608ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>43e9e5727e26f91d921fb62c51921db5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.381938812c0c08c914ec2f1798f5620cec66553d786f54c9ea83067fdfa9716b.52208e1b56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-06-27T17:28:04Z</t>
+    <t>8a3736e07472521a30a7a57331326e84</t>
+  </si>
+  <si>
+    <t>2025-06-30T14:19:24Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.4f7266497e4ff2cb0ed15bf040bc6470af0d8fc32e133002af8e9f34077d7216.2a3a95495b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d847e19abf60ada6d5bca358227e888b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.4f7266497e4ff2cb0ed15bf040bc6470af0d8fc32e133002af8e9f34077d7216.c6f422526d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-30T14:21:51Z</t>
   </si>
 </sst>
 </file>
@@ -3994,10 +3994,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10730,7 +10730,7 @@
         <v>395</v>
       </c>
       <c r="F169" s="37">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="G169" s="37" t="s">
         <v>508</v>
@@ -10818,7 +10818,7 @@
         <v>379</v>
       </c>
       <c r="F171" s="37">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="G171" s="37" t="s">
         <v>504</v>
@@ -18049,15 +18049,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18319,27 +18316,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18364,9 +18355,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ASSTLECCOXX/ASST_Lecco/IPAC/10.3/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGETTI\ASST\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8262B3-E1DA-477D-8EB7-6F7BB759D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB5A5E-DF7A-4494-9830-2D3ACFC5E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,15 +1911,6 @@
     <t>subject_application_version: 10.3</t>
   </si>
   <si>
-    <t>8a3736e07472521a30a7a57331326e84</t>
-  </si>
-  <si>
-    <t>2025-06-30T14:19:24Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.4f7266497e4ff2cb0ed15bf040bc6470af0d8fc32e133002af8e9f34077d7216.2a3a95495b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>d847e19abf60ada6d5bca358227e888b</t>
   </si>
   <si>
@@ -1927,6 +1918,15 @@
   </si>
   <si>
     <t>2025-06-30T14:21:51Z</t>
+  </si>
+  <si>
+    <t>2025-07-31T15:54:38Z</t>
+  </si>
+  <si>
+    <t>101ab0f75eda3cfb06462a61c75c5e11</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.7ad4f4e0c9b31d566b058bcf85b5351276abc6b7b99dbf68369b85e9df415f36.565931a643^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3994,10 +3994,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
+      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10733,13 +10733,13 @@
         <v>45838</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J169" s="38" t="s">
         <v>64</v>
@@ -10818,16 +10818,16 @@
         <v>379</v>
       </c>
       <c r="F171" s="37">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="G171" s="37" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H171" s="37" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J171" s="38" t="s">
         <v>64</v>
@@ -18049,12 +18049,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18316,21 +18319,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18355,18 +18364,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>